--- a/CEA_model/Mierendorff_Full/2020_GER_Updated/inputs/technology/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/CEA_model/Mierendorff_Full/2020_GER_Updated/inputs/technology/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/archetypes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5CEA1A-93DE-8A4A-B0D9-009ED104BD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FD5518-B5DE-40D6-934D-CC54EE56025B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="1" r:id="rId1"/>
@@ -45,92 +45,47 @@
   <commentList>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00140055-00B5-4393-A923-008600E600D0}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     assumption
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="B44" authorId="1" shapeId="0" xr:uid="{006C001D-008C-4C49-9F9D-0049000C0088}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Assumption TABULA
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="J44" authorId="2" shapeId="0" xr:uid="{00040065-0080-4F7C-A8BC-004C007100CB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Almost all windows are vertical in TABULA -&gt; 0.6 factor
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="K44" authorId="3" shapeId="0" xr:uid="{004800C7-00ED-4EEA-A85C-002300D90055}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     default in TABULA, UHP = 0.84
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="P44" authorId="4" shapeId="0" xr:uid="{006D0077-00A7-46BE-9484-001400F20018}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Computed from A_wall and A_window in TABULA values
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -138,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="1241">
   <si>
     <t>STANDARD</t>
   </si>
@@ -3845,10 +3800,22 @@
     <t>SUPPLY_ELECTRICITY_AS1</t>
   </si>
   <si>
-    <t>SUPPLY_HEATING_AS1</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS1</t>
+    <t>SUPPLY_HEATING_AS15</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS15</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS18</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS18</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS36</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS36</t>
   </si>
 </sst>
 </file>
@@ -3859,11 +3826,18 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3905,7 +3879,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4096,6 +4070,12 @@
         <bgColor theme="0" tint="-4.9989318521683403E-2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4228,9 +4208,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4344,13 +4324,13 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4435,16 +4415,16 @@
     <xf numFmtId="1" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4459,10 +4439,10 @@
     <xf numFmtId="49" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4493,19 +4473,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4517,7 +4497,7 @@
     <xf numFmtId="49" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4559,13 +4539,13 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4604,20 +4584,23 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4879,19 +4862,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A191"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4905,7 +4888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="99" t="s">
         <v>737</v>
       </c>
@@ -4919,7 +4902,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="100" t="s">
         <v>738</v>
       </c>
@@ -4933,7 +4916,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="100" t="s">
         <v>739</v>
       </c>
@@ -4947,7 +4930,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="100" t="s">
         <v>740</v>
       </c>
@@ -4961,7 +4944,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="100" t="s">
         <v>741</v>
       </c>
@@ -4975,7 +4958,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="100" t="s">
         <v>742</v>
       </c>
@@ -4989,7 +4972,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="100" t="s">
         <v>743</v>
       </c>
@@ -5003,7 +4986,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="100" t="s">
         <v>744</v>
       </c>
@@ -5017,7 +5000,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="100" t="s">
         <v>745</v>
       </c>
@@ -5031,7 +5014,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="100" t="s">
         <v>746</v>
       </c>
@@ -5045,7 +5028,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="100" t="s">
         <v>747</v>
       </c>
@@ -5059,7 +5042,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="101" t="s">
         <v>748</v>
       </c>
@@ -5073,7 +5056,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="102" t="s">
         <v>16</v>
       </c>
@@ -5087,7 +5070,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="103" t="s">
         <v>17</v>
       </c>
@@ -5101,7 +5084,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="103" t="s">
         <v>19</v>
       </c>
@@ -5115,7 +5098,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="103" t="s">
         <v>21</v>
       </c>
@@ -5129,7 +5112,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="103" t="s">
         <v>23</v>
       </c>
@@ -5143,7 +5126,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="103" t="s">
         <v>25</v>
       </c>
@@ -5157,7 +5140,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="103" t="s">
         <v>27</v>
       </c>
@@ -5171,7 +5154,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="103" t="s">
         <v>29</v>
       </c>
@@ -5185,7 +5168,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="103" t="s">
         <v>31</v>
       </c>
@@ -5199,7 +5182,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="103" t="s">
         <v>33</v>
       </c>
@@ -5213,7 +5196,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="103" t="s">
         <v>35</v>
       </c>
@@ -5227,7 +5210,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="104" t="s">
         <v>37</v>
       </c>
@@ -5241,7 +5224,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="105" t="s">
         <v>39</v>
       </c>
@@ -5255,7 +5238,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="106" t="s">
         <v>41</v>
       </c>
@@ -5269,7 +5252,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="106" t="s">
         <v>43</v>
       </c>
@@ -5283,7 +5266,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="106" t="s">
         <v>45</v>
       </c>
@@ -5297,7 +5280,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="106" t="s">
         <v>47</v>
       </c>
@@ -5311,7 +5294,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="106" t="s">
         <v>49</v>
       </c>
@@ -5325,7 +5308,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="106" t="s">
         <v>51</v>
       </c>
@@ -5339,7 +5322,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="106" t="s">
         <v>53</v>
       </c>
@@ -5353,7 +5336,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="106" t="s">
         <v>55</v>
       </c>
@@ -5367,7 +5350,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="106" t="s">
         <v>57</v>
       </c>
@@ -5381,7 +5364,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="107" t="s">
         <v>59</v>
       </c>
@@ -5395,7 +5378,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="108" t="s">
         <v>61</v>
       </c>
@@ -5409,7 +5392,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="109" t="s">
         <v>63</v>
       </c>
@@ -5423,7 +5406,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="109" t="s">
         <v>65</v>
       </c>
@@ -5437,7 +5420,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="109" t="s">
         <v>67</v>
       </c>
@@ -5451,7 +5434,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="109" t="s">
         <v>69</v>
       </c>
@@ -5465,7 +5448,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="108" t="s">
         <v>71</v>
       </c>
@@ -5479,7 +5462,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="108" t="s">
         <v>73</v>
       </c>
@@ -5493,7 +5476,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="99" t="s">
         <v>749</v>
       </c>
@@ -5507,7 +5490,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="100" t="s">
         <v>750</v>
       </c>
@@ -5521,7 +5504,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="100" t="s">
         <v>751</v>
       </c>
@@ -5535,7 +5518,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="100" t="s">
         <v>752</v>
       </c>
@@ -5549,7 +5532,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="100" t="s">
         <v>753</v>
       </c>
@@ -5563,7 +5546,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="100" t="s">
         <v>754</v>
       </c>
@@ -5577,7 +5560,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="100" t="s">
         <v>755</v>
       </c>
@@ -5591,7 +5574,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="100" t="s">
         <v>756</v>
       </c>
@@ -5605,7 +5588,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="100" t="s">
         <v>757</v>
       </c>
@@ -5619,7 +5602,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="100" t="s">
         <v>758</v>
       </c>
@@ -5633,7 +5616,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="100" t="s">
         <v>759</v>
       </c>
@@ -5647,7 +5630,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="101" t="s">
         <v>760</v>
       </c>
@@ -5661,7 +5644,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="102" t="s">
         <v>87</v>
       </c>
@@ -5675,7 +5658,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="103" t="s">
         <v>89</v>
       </c>
@@ -5689,7 +5672,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="103" t="s">
         <v>91</v>
       </c>
@@ -5703,7 +5686,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="103" t="s">
         <v>93</v>
       </c>
@@ -5717,7 +5700,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="103" t="s">
         <v>95</v>
       </c>
@@ -5731,7 +5714,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="103" t="s">
         <v>97</v>
       </c>
@@ -5745,7 +5728,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="103" t="s">
         <v>99</v>
       </c>
@@ -5759,7 +5742,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="103" t="s">
         <v>101</v>
       </c>
@@ -5773,7 +5756,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="103" t="s">
         <v>103</v>
       </c>
@@ -5787,7 +5770,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="103" t="s">
         <v>105</v>
       </c>
@@ -5801,7 +5784,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="103" t="s">
         <v>107</v>
       </c>
@@ -5815,7 +5798,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="104" t="s">
         <v>109</v>
       </c>
@@ -5829,7 +5812,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="105" t="s">
         <v>111</v>
       </c>
@@ -5843,7 +5826,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="106" t="s">
         <v>113</v>
       </c>
@@ -5857,7 +5840,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="106" t="s">
         <v>115</v>
       </c>
@@ -5871,7 +5854,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="106" t="s">
         <v>117</v>
       </c>
@@ -5885,7 +5868,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="106" t="s">
         <v>119</v>
       </c>
@@ -5899,7 +5882,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="106" t="s">
         <v>121</v>
       </c>
@@ -5913,7 +5896,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="106" t="s">
         <v>123</v>
       </c>
@@ -5927,7 +5910,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="106" t="s">
         <v>125</v>
       </c>
@@ -5941,7 +5924,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="106" t="s">
         <v>127</v>
       </c>
@@ -5955,7 +5938,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="106" t="s">
         <v>129</v>
       </c>
@@ -5969,7 +5952,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="107" t="s">
         <v>131</v>
       </c>
@@ -5983,7 +5966,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="108" t="s">
         <v>133</v>
       </c>
@@ -5997,7 +5980,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="109" t="s">
         <v>135</v>
       </c>
@@ -6011,7 +5994,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="109" t="s">
         <v>137</v>
       </c>
@@ -6025,7 +6008,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="109" t="s">
         <v>139</v>
       </c>
@@ -6039,7 +6022,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="109" t="s">
         <v>141</v>
       </c>
@@ -6053,7 +6036,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="108" t="s">
         <v>143</v>
       </c>
@@ -6067,7 +6050,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="109" t="s">
         <v>145</v>
       </c>
@@ -6081,7 +6064,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="99" t="s">
         <v>761</v>
       </c>
@@ -6095,7 +6078,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="100" t="s">
         <v>762</v>
       </c>
@@ -6109,7 +6092,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="100" t="s">
         <v>763</v>
       </c>
@@ -6123,7 +6106,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="100" t="s">
         <v>764</v>
       </c>
@@ -6137,7 +6120,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="100" t="s">
         <v>765</v>
       </c>
@@ -6151,7 +6134,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="100" t="s">
         <v>766</v>
       </c>
@@ -6165,7 +6148,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="100" t="s">
         <v>767</v>
       </c>
@@ -6179,7 +6162,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="100" t="s">
         <v>768</v>
       </c>
@@ -6193,7 +6176,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="100" t="s">
         <v>769</v>
       </c>
@@ -6207,7 +6190,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="100" t="s">
         <v>770</v>
       </c>
@@ -6221,7 +6204,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="100" t="s">
         <v>771</v>
       </c>
@@ -6235,7 +6218,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="101" t="s">
         <v>772</v>
       </c>
@@ -6249,7 +6232,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="102" t="s">
         <v>159</v>
       </c>
@@ -6263,7 +6246,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="103" t="s">
         <v>161</v>
       </c>
@@ -6277,7 +6260,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="103" t="s">
         <v>163</v>
       </c>
@@ -6291,7 +6274,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="103" t="s">
         <v>165</v>
       </c>
@@ -6305,7 +6288,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="103" t="s">
         <v>167</v>
       </c>
@@ -6319,7 +6302,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="103" t="s">
         <v>169</v>
       </c>
@@ -6333,7 +6316,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="103" t="s">
         <v>171</v>
       </c>
@@ -6347,7 +6330,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="103" t="s">
         <v>173</v>
       </c>
@@ -6361,7 +6344,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="103" t="s">
         <v>175</v>
       </c>
@@ -6375,7 +6358,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="103" t="s">
         <v>177</v>
       </c>
@@ -6389,7 +6372,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="103" t="s">
         <v>179</v>
       </c>
@@ -6403,7 +6386,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="104" t="s">
         <v>181</v>
       </c>
@@ -6417,7 +6400,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="105" t="s">
         <v>183</v>
       </c>
@@ -6431,7 +6414,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="106" t="s">
         <v>185</v>
       </c>
@@ -6445,7 +6428,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="106" t="s">
         <v>187</v>
       </c>
@@ -6459,7 +6442,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="106" t="s">
         <v>189</v>
       </c>
@@ -6473,7 +6456,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="106" t="s">
         <v>191</v>
       </c>
@@ -6487,7 +6470,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="106" t="s">
         <v>193</v>
       </c>
@@ -6501,7 +6484,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="106" t="s">
         <v>195</v>
       </c>
@@ -6515,7 +6498,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="106" t="s">
         <v>197</v>
       </c>
@@ -6529,7 +6512,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="106" t="s">
         <v>199</v>
       </c>
@@ -6543,7 +6526,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="106" t="s">
         <v>201</v>
       </c>
@@ -6557,7 +6540,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="107" t="s">
         <v>203</v>
       </c>
@@ -6571,7 +6554,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="108" t="s">
         <v>205</v>
       </c>
@@ -6585,7 +6568,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="109" t="s">
         <v>207</v>
       </c>
@@ -6599,7 +6582,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="109" t="s">
         <v>209</v>
       </c>
@@ -6613,7 +6596,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="109" t="s">
         <v>211</v>
       </c>
@@ -6627,7 +6610,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="109" t="s">
         <v>213</v>
       </c>
@@ -6641,7 +6624,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="108" t="s">
         <v>215</v>
       </c>
@@ -6655,7 +6638,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="109" t="s">
         <v>217</v>
       </c>
@@ -6669,7 +6652,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="110" t="s">
         <v>1107</v>
       </c>
@@ -6683,7 +6666,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="110" t="s">
         <v>1108</v>
       </c>
@@ -6697,7 +6680,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="110" t="s">
         <v>1109</v>
       </c>
@@ -6711,7 +6694,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="110" t="s">
         <v>1110</v>
       </c>
@@ -6725,7 +6708,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="110" t="s">
         <v>1111</v>
       </c>
@@ -6739,7 +6722,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="110" t="s">
         <v>1116</v>
       </c>
@@ -6753,7 +6736,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="110" t="s">
         <v>1115</v>
       </c>
@@ -6767,7 +6750,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="111" t="s">
         <v>1122</v>
       </c>
@@ -6781,7 +6764,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="111" t="s">
         <v>1123</v>
       </c>
@@ -6795,7 +6778,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="111" t="s">
         <v>1124</v>
       </c>
@@ -6809,7 +6792,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="111" t="s">
         <v>1125</v>
       </c>
@@ -6823,7 +6806,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="111" t="s">
         <v>1126</v>
       </c>
@@ -6837,7 +6820,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="111" t="s">
         <v>1127</v>
       </c>
@@ -6851,7 +6834,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="111" t="s">
         <v>1128</v>
       </c>
@@ -6865,7 +6848,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="109" t="s">
         <v>1136</v>
       </c>
@@ -6879,7 +6862,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="109" t="s">
         <v>1137</v>
       </c>
@@ -6893,7 +6876,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="109" t="s">
         <v>1138</v>
       </c>
@@ -6907,7 +6890,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="109" t="s">
         <v>1139</v>
       </c>
@@ -6921,7 +6904,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="109" t="s">
         <v>1140</v>
       </c>
@@ -6935,7 +6918,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="109" t="s">
         <v>1141</v>
       </c>
@@ -6949,7 +6932,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="109" t="s">
         <v>1142</v>
       </c>
@@ -6963,7 +6946,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="112" t="s">
         <v>881</v>
       </c>
@@ -6977,7 +6960,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="113" t="s">
         <v>884</v>
       </c>
@@ -6991,7 +6974,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="113" t="s">
         <v>882</v>
       </c>
@@ -7005,7 +6988,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="114" t="s">
         <v>883</v>
       </c>
@@ -7019,7 +7002,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="115" t="s">
         <v>219</v>
       </c>
@@ -7033,7 +7016,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="115" t="s">
         <v>220</v>
       </c>
@@ -7047,7 +7030,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="115" t="s">
         <v>221</v>
       </c>
@@ -7061,7 +7044,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="116" t="s">
         <v>222</v>
       </c>
@@ -7075,7 +7058,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="116" t="s">
         <v>223</v>
       </c>
@@ -7089,7 +7072,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="116" t="s">
         <v>224</v>
       </c>
@@ -7103,7 +7086,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="117" t="s">
         <v>225</v>
       </c>
@@ -7117,7 +7100,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="117" t="s">
         <v>226</v>
       </c>
@@ -7131,7 +7114,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="117" t="s">
         <v>227</v>
       </c>
@@ -7145,7 +7128,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="118" t="s">
         <v>228</v>
       </c>
@@ -7159,7 +7142,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="118" t="s">
         <v>229</v>
       </c>
@@ -7173,7 +7156,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="118" t="s">
         <v>230</v>
       </c>
@@ -7187,7 +7170,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="119" t="s">
         <v>231</v>
       </c>
@@ -7201,7 +7184,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="119" t="s">
         <v>232</v>
       </c>
@@ -7215,7 +7198,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="119" t="s">
         <v>233</v>
       </c>
@@ -7229,7 +7212,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="120" t="s">
         <v>234</v>
       </c>
@@ -7243,7 +7226,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="120" t="s">
         <v>235</v>
       </c>
@@ -7257,7 +7240,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="120" t="s">
         <v>236</v>
       </c>
@@ -7271,7 +7254,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="121" t="s">
         <v>237</v>
       </c>
@@ -7285,7 +7268,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="121" t="s">
         <v>238</v>
       </c>
@@ -7299,7 +7282,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="121" t="s">
         <v>239</v>
       </c>
@@ -7313,7 +7296,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="122" t="s">
         <v>240</v>
       </c>
@@ -7327,7 +7310,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="122" t="s">
         <v>241</v>
       </c>
@@ -7341,7 +7324,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="122" t="s">
         <v>242</v>
       </c>
@@ -7355,7 +7338,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="119" t="s">
         <v>243</v>
       </c>
@@ -7369,7 +7352,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="119" t="s">
         <v>244</v>
       </c>
@@ -7383,7 +7366,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="119" t="s">
         <v>245</v>
       </c>
@@ -7397,7 +7380,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="123" t="s">
         <v>246</v>
       </c>
@@ -7411,7 +7394,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="123" t="s">
         <v>247</v>
       </c>
@@ -7425,7 +7408,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="123" t="s">
         <v>248</v>
       </c>
@@ -7439,7 +7422,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="124" t="s">
         <v>249</v>
       </c>
@@ -7453,7 +7436,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="124" t="s">
         <v>250</v>
       </c>
@@ -7467,7 +7450,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="124" t="s">
         <v>251</v>
       </c>
@@ -7481,7 +7464,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="125" t="s">
         <v>252</v>
       </c>
@@ -7495,7 +7478,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="125" t="s">
         <v>253</v>
       </c>
@@ -7509,7 +7492,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="125" t="s">
         <v>254</v>
       </c>
@@ -7523,7 +7506,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="126" t="s">
         <v>255</v>
       </c>
@@ -7537,7 +7520,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="126" t="s">
         <v>256</v>
       </c>
@@ -7551,7 +7534,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="126" t="s">
         <v>257</v>
       </c>
@@ -7583,30 +7566,30 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2:A191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.1640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.1796875" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="54" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="54" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1796875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.36328125" style="55" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="55" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="55" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1640625" style="54"/>
+    <col min="16" max="16" width="10.6328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.453125" style="55" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" style="55" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -7665,7 +7648,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="70" t="s">
         <v>737</v>
       </c>
@@ -7724,7 +7707,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="70" t="s">
         <v>738</v>
       </c>
@@ -7783,7 +7766,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="70" t="s">
         <v>739</v>
       </c>
@@ -7842,7 +7825,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="70" t="s">
         <v>740</v>
       </c>
@@ -7901,7 +7884,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="70" t="s">
         <v>741</v>
       </c>
@@ -7960,7 +7943,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="70" t="s">
         <v>742</v>
       </c>
@@ -8019,7 +8002,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="70" t="s">
         <v>743</v>
       </c>
@@ -8078,7 +8061,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="70" t="s">
         <v>744</v>
       </c>
@@ -8137,7 +8120,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="70" t="s">
         <v>745</v>
       </c>
@@ -8196,7 +8179,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="70" t="s">
         <v>746</v>
       </c>
@@ -8255,7 +8238,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="70" t="s">
         <v>747</v>
       </c>
@@ -8314,7 +8297,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="70" t="s">
         <v>748</v>
       </c>
@@ -8373,7 +8356,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="70" t="s">
         <v>16</v>
       </c>
@@ -8432,7 +8415,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="70" t="s">
         <v>17</v>
       </c>
@@ -8491,7 +8474,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
         <v>19</v>
       </c>
@@ -8550,7 +8533,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="70" t="s">
         <v>21</v>
       </c>
@@ -8609,7 +8592,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="70" t="s">
         <v>23</v>
       </c>
@@ -8668,7 +8651,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="70" t="s">
         <v>25</v>
       </c>
@@ -8727,7 +8710,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="70" t="s">
         <v>27</v>
       </c>
@@ -8786,7 +8769,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="70" t="s">
         <v>29</v>
       </c>
@@ -8845,7 +8828,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="70" t="s">
         <v>31</v>
       </c>
@@ -8904,7 +8887,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="70" t="s">
         <v>33</v>
       </c>
@@ -8963,7 +8946,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="70" t="s">
         <v>35</v>
       </c>
@@ -9022,7 +9005,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="70" t="s">
         <v>37</v>
       </c>
@@ -9081,7 +9064,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="70" t="s">
         <v>39</v>
       </c>
@@ -9140,7 +9123,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="70" t="s">
         <v>41</v>
       </c>
@@ -9199,7 +9182,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="70" t="s">
         <v>43</v>
       </c>
@@ -9258,7 +9241,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="70" t="s">
         <v>45</v>
       </c>
@@ -9317,7 +9300,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="70" t="s">
         <v>47</v>
       </c>
@@ -9376,7 +9359,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="70" t="s">
         <v>49</v>
       </c>
@@ -9435,7 +9418,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="70" t="s">
         <v>51</v>
       </c>
@@ -9494,7 +9477,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="70" t="s">
         <v>53</v>
       </c>
@@ -9553,7 +9536,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="70" t="s">
         <v>55</v>
       </c>
@@ -9612,7 +9595,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="70" t="s">
         <v>57</v>
       </c>
@@ -9671,7 +9654,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="70" t="s">
         <v>59</v>
       </c>
@@ -9730,7 +9713,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="70" t="s">
         <v>61</v>
       </c>
@@ -9789,7 +9772,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="70" t="s">
         <v>63</v>
       </c>
@@ -9848,7 +9831,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="70" t="s">
         <v>65</v>
       </c>
@@ -9907,7 +9890,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="70" t="s">
         <v>67</v>
       </c>
@@ -9966,7 +9949,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="70" t="s">
         <v>69</v>
       </c>
@@ -10025,7 +10008,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="70" t="s">
         <v>71</v>
       </c>
@@ -10084,7 +10067,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="70" t="s">
         <v>73</v>
       </c>
@@ -10143,7 +10126,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="70" t="s">
         <v>749</v>
       </c>
@@ -10202,7 +10185,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="70" t="s">
         <v>750</v>
       </c>
@@ -10261,7 +10244,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="70" t="s">
         <v>751</v>
       </c>
@@ -10320,7 +10303,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="70" t="s">
         <v>752</v>
       </c>
@@ -10379,7 +10362,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="70" t="s">
         <v>753</v>
       </c>
@@ -10438,7 +10421,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="70" t="s">
         <v>754</v>
       </c>
@@ -10497,7 +10480,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="70" t="s">
         <v>755</v>
       </c>
@@ -10556,7 +10539,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="70" t="s">
         <v>756</v>
       </c>
@@ -10615,7 +10598,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="70" t="s">
         <v>757</v>
       </c>
@@ -10674,7 +10657,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="70" t="s">
         <v>758</v>
       </c>
@@ -10733,7 +10716,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="70" t="s">
         <v>759</v>
       </c>
@@ -10792,7 +10775,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="70" t="s">
         <v>760</v>
       </c>
@@ -10851,7 +10834,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="70" t="s">
         <v>87</v>
       </c>
@@ -10910,7 +10893,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="70" t="s">
         <v>89</v>
       </c>
@@ -10969,7 +10952,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="70" t="s">
         <v>91</v>
       </c>
@@ -11028,7 +11011,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="70" t="s">
         <v>93</v>
       </c>
@@ -11087,7 +11070,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="70" t="s">
         <v>95</v>
       </c>
@@ -11146,7 +11129,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="70" t="s">
         <v>97</v>
       </c>
@@ -11205,7 +11188,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="70" t="s">
         <v>99</v>
       </c>
@@ -11264,7 +11247,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="70" t="s">
         <v>101</v>
       </c>
@@ -11323,7 +11306,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="70" t="s">
         <v>103</v>
       </c>
@@ -11382,7 +11365,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="70" t="s">
         <v>105</v>
       </c>
@@ -11441,7 +11424,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="70" t="s">
         <v>107</v>
       </c>
@@ -11500,7 +11483,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="70" t="s">
         <v>109</v>
       </c>
@@ -11559,7 +11542,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="70" t="s">
         <v>111</v>
       </c>
@@ -11618,7 +11601,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="70" t="s">
         <v>113</v>
       </c>
@@ -11677,7 +11660,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="70" t="s">
         <v>115</v>
       </c>
@@ -11736,7 +11719,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="70" t="s">
         <v>117</v>
       </c>
@@ -11795,7 +11778,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="70" t="s">
         <v>119</v>
       </c>
@@ -11854,7 +11837,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="70" t="s">
         <v>121</v>
       </c>
@@ -11913,7 +11896,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="70" t="s">
         <v>123</v>
       </c>
@@ -11972,7 +11955,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="70" t="s">
         <v>125</v>
       </c>
@@ -12031,7 +12014,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="70" t="s">
         <v>127</v>
       </c>
@@ -12090,7 +12073,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="70" t="s">
         <v>129</v>
       </c>
@@ -12149,7 +12132,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="70" t="s">
         <v>131</v>
       </c>
@@ -12208,7 +12191,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="70" t="s">
         <v>133</v>
       </c>
@@ -12267,7 +12250,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="70" t="s">
         <v>135</v>
       </c>
@@ -12326,7 +12309,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="70" t="s">
         <v>137</v>
       </c>
@@ -12385,7 +12368,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="70" t="s">
         <v>139</v>
       </c>
@@ -12444,7 +12427,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="70" t="s">
         <v>141</v>
       </c>
@@ -12503,7 +12486,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="70" t="s">
         <v>143</v>
       </c>
@@ -12562,7 +12545,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="70" t="s">
         <v>145</v>
       </c>
@@ -12621,7 +12604,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="70" t="s">
         <v>761</v>
       </c>
@@ -12680,7 +12663,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="70" t="s">
         <v>762</v>
       </c>
@@ -12739,7 +12722,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="70" t="s">
         <v>763</v>
       </c>
@@ -12798,7 +12781,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="70" t="s">
         <v>764</v>
       </c>
@@ -12857,7 +12840,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="70" t="s">
         <v>765</v>
       </c>
@@ -12916,7 +12899,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="70" t="s">
         <v>766</v>
       </c>
@@ -12975,7 +12958,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="70" t="s">
         <v>767</v>
       </c>
@@ -13034,7 +13017,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="70" t="s">
         <v>768</v>
       </c>
@@ -13093,7 +13076,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="70" t="s">
         <v>769</v>
       </c>
@@ -13152,7 +13135,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="70" t="s">
         <v>770</v>
       </c>
@@ -13211,7 +13194,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="70" t="s">
         <v>771</v>
       </c>
@@ -13270,7 +13253,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="70" t="s">
         <v>772</v>
       </c>
@@ -13329,7 +13312,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="70" t="s">
         <v>159</v>
       </c>
@@ -13388,7 +13371,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="70" t="s">
         <v>161</v>
       </c>
@@ -13447,7 +13430,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="70" t="s">
         <v>163</v>
       </c>
@@ -13506,7 +13489,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="70" t="s">
         <v>165</v>
       </c>
@@ -13565,7 +13548,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="70" t="s">
         <v>167</v>
       </c>
@@ -13624,7 +13607,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="70" t="s">
         <v>169</v>
       </c>
@@ -13683,7 +13666,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="70" t="s">
         <v>171</v>
       </c>
@@ -13742,7 +13725,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="70" t="s">
         <v>173</v>
       </c>
@@ -13801,7 +13784,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="70" t="s">
         <v>175</v>
       </c>
@@ -13860,7 +13843,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="70" t="s">
         <v>177</v>
       </c>
@@ -13919,7 +13902,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="70" t="s">
         <v>179</v>
       </c>
@@ -13978,7 +13961,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="70" t="s">
         <v>181</v>
       </c>
@@ -14037,7 +14020,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="70" t="s">
         <v>183</v>
       </c>
@@ -14096,7 +14079,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="70" t="s">
         <v>185</v>
       </c>
@@ -14155,7 +14138,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="70" t="s">
         <v>187</v>
       </c>
@@ -14214,7 +14197,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="70" t="s">
         <v>189</v>
       </c>
@@ -14273,7 +14256,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="70" t="s">
         <v>191</v>
       </c>
@@ -14332,7 +14315,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="70" t="s">
         <v>193</v>
       </c>
@@ -14391,7 +14374,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="70" t="s">
         <v>195</v>
       </c>
@@ -14450,7 +14433,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="70" t="s">
         <v>197</v>
       </c>
@@ -14509,7 +14492,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="70" t="s">
         <v>199</v>
       </c>
@@ -14568,7 +14551,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="70" t="s">
         <v>201</v>
       </c>
@@ -14627,7 +14610,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="70" t="s">
         <v>203</v>
       </c>
@@ -14686,7 +14669,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="70" t="s">
         <v>205</v>
       </c>
@@ -14745,7 +14728,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="70" t="s">
         <v>207</v>
       </c>
@@ -14804,7 +14787,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="70" t="s">
         <v>209</v>
       </c>
@@ -14863,7 +14846,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="70" t="s">
         <v>211</v>
       </c>
@@ -14922,7 +14905,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="70" t="s">
         <v>213</v>
       </c>
@@ -14981,7 +14964,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="70" t="s">
         <v>215</v>
       </c>
@@ -15040,7 +15023,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="70" t="s">
         <v>217</v>
       </c>
@@ -15099,7 +15082,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="70" t="s">
         <v>1107</v>
       </c>
@@ -15158,7 +15141,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="70" t="s">
         <v>1108</v>
       </c>
@@ -15217,7 +15200,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="70" t="s">
         <v>1109</v>
       </c>
@@ -15276,7 +15259,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="70" t="s">
         <v>1110</v>
       </c>
@@ -15335,7 +15318,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="70" t="s">
         <v>1111</v>
       </c>
@@ -15394,7 +15377,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="70" t="s">
         <v>1116</v>
       </c>
@@ -15453,7 +15436,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="70" t="s">
         <v>1115</v>
       </c>
@@ -15512,7 +15495,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="70" t="s">
         <v>1122</v>
       </c>
@@ -15571,7 +15554,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="70" t="s">
         <v>1123</v>
       </c>
@@ -15630,7 +15613,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="70" t="s">
         <v>1124</v>
       </c>
@@ -15689,7 +15672,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="70" t="s">
         <v>1125</v>
       </c>
@@ -15748,7 +15731,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="70" t="s">
         <v>1126</v>
       </c>
@@ -15807,7 +15790,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="70" t="s">
         <v>1127</v>
       </c>
@@ -15866,7 +15849,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="70" t="s">
         <v>1128</v>
       </c>
@@ -15925,7 +15908,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="70" t="s">
         <v>1136</v>
       </c>
@@ -15984,7 +15967,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="70" t="s">
         <v>1137</v>
       </c>
@@ -16043,7 +16026,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="70" t="s">
         <v>1138</v>
       </c>
@@ -16102,7 +16085,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="70" t="s">
         <v>1139</v>
       </c>
@@ -16161,7 +16144,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="70" t="s">
         <v>1140</v>
       </c>
@@ -16220,7 +16203,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="70" t="s">
         <v>1141</v>
       </c>
@@ -16279,7 +16262,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="70" t="s">
         <v>1142</v>
       </c>
@@ -16338,7 +16321,7 @@
         <v>0.18706600000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="70" t="s">
         <v>881</v>
       </c>
@@ -16397,7 +16380,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" s="70" t="s">
         <v>884</v>
       </c>
@@ -16456,7 +16439,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" s="70" t="s">
         <v>882</v>
       </c>
@@ -16515,7 +16498,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" s="70" t="s">
         <v>883</v>
       </c>
@@ -16574,7 +16557,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" s="70" t="s">
         <v>219</v>
       </c>
@@ -16633,7 +16616,7 @@
         <v>0.31028</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" s="70" t="s">
         <v>220</v>
       </c>
@@ -16692,7 +16675,7 @@
         <v>0.39448800000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" s="70" t="s">
         <v>221</v>
       </c>
@@ -16751,7 +16734,7 @@
         <v>0.37138300000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" s="70" t="s">
         <v>222</v>
       </c>
@@ -16810,7 +16793,7 @@
         <v>0.37075799999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" s="70" t="s">
         <v>223</v>
       </c>
@@ -16869,7 +16852,7 @@
         <v>0.43630999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" s="70" t="s">
         <v>224</v>
       </c>
@@ -16928,7 +16911,7 @@
         <v>0.463285</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" s="70" t="s">
         <v>225</v>
       </c>
@@ -16987,7 +16970,7 @@
         <v>0.26594800000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" s="70" t="s">
         <v>226</v>
       </c>
@@ -17046,7 +17029,7 @@
         <v>0.33796100000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161" s="70" t="s">
         <v>227</v>
       </c>
@@ -17105,7 +17088,7 @@
         <v>0.46553600000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162" s="70" t="s">
         <v>228</v>
       </c>
@@ -17164,7 +17147,7 @@
         <v>0.39581899999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163" s="70" t="s">
         <v>229</v>
       </c>
@@ -17223,7 +17206,7 @@
         <v>0.43202699999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164" s="70" t="s">
         <v>230</v>
       </c>
@@ -17282,7 +17265,7 @@
         <v>0.35724400000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165" s="70" t="s">
         <v>231</v>
       </c>
@@ -17341,7 +17324,7 @@
         <v>0.29507699999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" s="70" t="s">
         <v>232</v>
       </c>
@@ -17400,7 +17383,7 @@
         <v>0.29121200000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" s="70" t="s">
         <v>233</v>
       </c>
@@ -17459,7 +17442,7 @@
         <v>0.50745499999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" s="70" t="s">
         <v>234</v>
       </c>
@@ -17518,7 +17501,7 @@
         <v>0.588364</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" s="70" t="s">
         <v>235</v>
       </c>
@@ -17577,7 +17560,7 @@
         <v>0.26712599999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" s="70" t="s">
         <v>236</v>
       </c>
@@ -17636,7 +17619,7 @@
         <v>0.12559899999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" s="70" t="s">
         <v>237</v>
       </c>
@@ -17695,7 +17678,7 @@
         <v>0.27556000000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" s="70" t="s">
         <v>238</v>
       </c>
@@ -17754,7 +17737,7 @@
         <v>0.33045400000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173" s="70" t="s">
         <v>239</v>
       </c>
@@ -17813,7 +17796,7 @@
         <v>0.31654100000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174" s="70" t="s">
         <v>240</v>
       </c>
@@ -17872,7 +17855,7 @@
         <v>0.25633699999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" s="70" t="s">
         <v>241</v>
       </c>
@@ -17931,7 +17914,7 @@
         <v>0.208511</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" s="70" t="s">
         <v>242</v>
       </c>
@@ -17990,7 +17973,7 @@
         <v>0.19170100000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" s="70" t="s">
         <v>243</v>
       </c>
@@ -18049,7 +18032,7 @@
         <v>0.24034</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" s="70" t="s">
         <v>244</v>
       </c>
@@ -18108,7 +18091,7 @@
         <v>0.233844</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" s="70" t="s">
         <v>245</v>
       </c>
@@ -18167,7 +18150,7 @@
         <v>0.40205000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" s="70" t="s">
         <v>246</v>
       </c>
@@ -18226,7 +18209,7 @@
         <v>0.22568099999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="70" t="s">
         <v>247</v>
       </c>
@@ -18285,7 +18268,7 @@
         <v>0.118976</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" s="70" t="s">
         <v>248</v>
       </c>
@@ -18344,7 +18327,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" s="70" t="s">
         <v>249</v>
       </c>
@@ -18403,7 +18386,7 @@
         <v>0.41618699999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184" s="70" t="s">
         <v>250</v>
       </c>
@@ -18462,7 +18445,7 @@
         <v>5.9598999999999999E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" s="70" t="s">
         <v>251</v>
       </c>
@@ -18521,7 +18504,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" s="70" t="s">
         <v>252</v>
       </c>
@@ -18580,7 +18563,7 @@
         <v>0.33598099999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187" s="70" t="s">
         <v>253</v>
       </c>
@@ -18639,7 +18622,7 @@
         <v>0.33538899999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" s="70" t="s">
         <v>254</v>
       </c>
@@ -18698,7 +18681,7 @@
         <v>0.37784200000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" s="70" t="s">
         <v>255</v>
       </c>
@@ -18757,7 +18740,7 @@
         <v>0.26314500000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" s="70" t="s">
         <v>256</v>
       </c>
@@ -18816,7 +18799,7 @@
         <v>0.19855999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191" s="70" t="s">
         <v>257</v>
       </c>
@@ -18876,7 +18859,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -18895,22 +18878,22 @@
       <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="128" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="55" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="128" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="54" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="54"/>
+    <col min="11" max="16384" width="9.1796875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
@@ -18942,7 +18925,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="98" t="s">
         <v>737</v>
       </c>
@@ -18974,7 +18957,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="98" t="s">
         <v>738</v>
       </c>
@@ -19006,7 +18989,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="98" t="s">
         <v>739</v>
       </c>
@@ -19038,7 +19021,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="98" t="s">
         <v>740</v>
       </c>
@@ -19070,7 +19053,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="98" t="s">
         <v>741</v>
       </c>
@@ -19102,7 +19085,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="98" t="s">
         <v>742</v>
       </c>
@@ -19134,7 +19117,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="98" t="s">
         <v>743</v>
       </c>
@@ -19166,7 +19149,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="98" t="s">
         <v>744</v>
       </c>
@@ -19198,7 +19181,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="98" t="s">
         <v>745</v>
       </c>
@@ -19230,7 +19213,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="98" t="s">
         <v>746</v>
       </c>
@@ -19262,7 +19245,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="98" t="s">
         <v>747</v>
       </c>
@@ -19294,7 +19277,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="98" t="s">
         <v>748</v>
       </c>
@@ -19326,7 +19309,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="98" t="s">
         <v>16</v>
       </c>
@@ -19358,7 +19341,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="98" t="s">
         <v>17</v>
       </c>
@@ -19390,7 +19373,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="98" t="s">
         <v>19</v>
       </c>
@@ -19422,7 +19405,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="98" t="s">
         <v>21</v>
       </c>
@@ -19454,7 +19437,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="98" t="s">
         <v>23</v>
       </c>
@@ -19486,7 +19469,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="98" t="s">
         <v>25</v>
       </c>
@@ -19518,7 +19501,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="98" t="s">
         <v>27</v>
       </c>
@@ -19550,7 +19533,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="98" t="s">
         <v>29</v>
       </c>
@@ -19582,7 +19565,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="98" t="s">
         <v>31</v>
       </c>
@@ -19614,7 +19597,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="98" t="s">
         <v>33</v>
       </c>
@@ -19646,7 +19629,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="98" t="s">
         <v>35</v>
       </c>
@@ -19678,7 +19661,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="98" t="s">
         <v>37</v>
       </c>
@@ -19710,7 +19693,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="98" t="s">
         <v>39</v>
       </c>
@@ -19742,7 +19725,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="98" t="s">
         <v>41</v>
       </c>
@@ -19774,7 +19757,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="98" t="s">
         <v>43</v>
       </c>
@@ -19806,7 +19789,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="98" t="s">
         <v>45</v>
       </c>
@@ -19838,7 +19821,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="98" t="s">
         <v>47</v>
       </c>
@@ -19870,7 +19853,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="98" t="s">
         <v>49</v>
       </c>
@@ -19902,7 +19885,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="98" t="s">
         <v>51</v>
       </c>
@@ -19934,7 +19917,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="98" t="s">
         <v>53</v>
       </c>
@@ -19966,7 +19949,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="98" t="s">
         <v>55</v>
       </c>
@@ -19998,7 +19981,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="98" t="s">
         <v>57</v>
       </c>
@@ -20030,7 +20013,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="98" t="s">
         <v>59</v>
       </c>
@@ -20062,7 +20045,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="98" t="s">
         <v>61</v>
       </c>
@@ -20094,7 +20077,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="98" t="s">
         <v>63</v>
       </c>
@@ -20126,7 +20109,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="98" t="s">
         <v>65</v>
       </c>
@@ -20158,7 +20141,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="98" t="s">
         <v>67</v>
       </c>
@@ -20190,7 +20173,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="98" t="s">
         <v>69</v>
       </c>
@@ -20222,7 +20205,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="98" t="s">
         <v>71</v>
       </c>
@@ -20254,7 +20237,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="98" t="s">
         <v>73</v>
       </c>
@@ -20286,7 +20269,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="98" t="s">
         <v>749</v>
       </c>
@@ -20318,7 +20301,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="98" t="s">
         <v>750</v>
       </c>
@@ -20350,7 +20333,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="98" t="s">
         <v>751</v>
       </c>
@@ -20382,7 +20365,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="98" t="s">
         <v>752</v>
       </c>
@@ -20414,7 +20397,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="98" t="s">
         <v>753</v>
       </c>
@@ -20446,7 +20429,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="98" t="s">
         <v>754</v>
       </c>
@@ -20478,7 +20461,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="98" t="s">
         <v>755</v>
       </c>
@@ -20510,7 +20493,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="98" t="s">
         <v>756</v>
       </c>
@@ -20542,7 +20525,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="98" t="s">
         <v>757</v>
       </c>
@@ -20574,7 +20557,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="98" t="s">
         <v>758</v>
       </c>
@@ -20606,7 +20589,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="98" t="s">
         <v>759</v>
       </c>
@@ -20638,7 +20621,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="98" t="s">
         <v>760</v>
       </c>
@@ -20670,7 +20653,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="98" t="s">
         <v>87</v>
       </c>
@@ -20702,7 +20685,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="98" t="s">
         <v>89</v>
       </c>
@@ -20734,7 +20717,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="98" t="s">
         <v>91</v>
       </c>
@@ -20766,7 +20749,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="98" t="s">
         <v>93</v>
       </c>
@@ -20798,7 +20781,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="98" t="s">
         <v>95</v>
       </c>
@@ -20830,7 +20813,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="98" t="s">
         <v>97</v>
       </c>
@@ -20862,7 +20845,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="98" t="s">
         <v>99</v>
       </c>
@@ -20894,7 +20877,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="98" t="s">
         <v>101</v>
       </c>
@@ -20926,7 +20909,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="98" t="s">
         <v>103</v>
       </c>
@@ -20958,7 +20941,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="98" t="s">
         <v>105</v>
       </c>
@@ -20990,7 +20973,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="98" t="s">
         <v>107</v>
       </c>
@@ -21022,7 +21005,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="98" t="s">
         <v>109</v>
       </c>
@@ -21054,7 +21037,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="98" t="s">
         <v>111</v>
       </c>
@@ -21086,7 +21069,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="98" t="s">
         <v>113</v>
       </c>
@@ -21118,7 +21101,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="98" t="s">
         <v>115</v>
       </c>
@@ -21150,7 +21133,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="98" t="s">
         <v>117</v>
       </c>
@@ -21182,7 +21165,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="98" t="s">
         <v>119</v>
       </c>
@@ -21214,7 +21197,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="98" t="s">
         <v>121</v>
       </c>
@@ -21246,7 +21229,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="98" t="s">
         <v>123</v>
       </c>
@@ -21278,7 +21261,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="98" t="s">
         <v>125</v>
       </c>
@@ -21310,7 +21293,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="98" t="s">
         <v>127</v>
       </c>
@@ -21342,7 +21325,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="98" t="s">
         <v>129</v>
       </c>
@@ -21374,7 +21357,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="98" t="s">
         <v>131</v>
       </c>
@@ -21406,7 +21389,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="98" t="s">
         <v>133</v>
       </c>
@@ -21438,7 +21421,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="98" t="s">
         <v>135</v>
       </c>
@@ -21470,7 +21453,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="98" t="s">
         <v>137</v>
       </c>
@@ -21502,7 +21485,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="98" t="s">
         <v>139</v>
       </c>
@@ -21534,7 +21517,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="98" t="s">
         <v>141</v>
       </c>
@@ -21566,7 +21549,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="98" t="s">
         <v>143</v>
       </c>
@@ -21598,7 +21581,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="98" t="s">
         <v>145</v>
       </c>
@@ -21630,7 +21613,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="98" t="s">
         <v>761</v>
       </c>
@@ -21662,7 +21645,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="98" t="s">
         <v>762</v>
       </c>
@@ -21694,7 +21677,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="98" t="s">
         <v>763</v>
       </c>
@@ -21726,7 +21709,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="98" t="s">
         <v>764</v>
       </c>
@@ -21758,7 +21741,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="98" t="s">
         <v>765</v>
       </c>
@@ -21790,7 +21773,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="98" t="s">
         <v>766</v>
       </c>
@@ -21822,7 +21805,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="98" t="s">
         <v>767</v>
       </c>
@@ -21854,7 +21837,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="98" t="s">
         <v>768</v>
       </c>
@@ -21886,7 +21869,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="98" t="s">
         <v>769</v>
       </c>
@@ -21918,7 +21901,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="98" t="s">
         <v>770</v>
       </c>
@@ -21950,7 +21933,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="98" t="s">
         <v>771</v>
       </c>
@@ -21982,7 +21965,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="98" t="s">
         <v>772</v>
       </c>
@@ -22014,7 +21997,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="98" t="s">
         <v>159</v>
       </c>
@@ -22046,7 +22029,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="98" t="s">
         <v>161</v>
       </c>
@@ -22078,7 +22061,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="98" t="s">
         <v>163</v>
       </c>
@@ -22110,7 +22093,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="98" t="s">
         <v>165</v>
       </c>
@@ -22142,7 +22125,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="98" t="s">
         <v>167</v>
       </c>
@@ -22174,7 +22157,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="98" t="s">
         <v>169</v>
       </c>
@@ -22206,7 +22189,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="98" t="s">
         <v>171</v>
       </c>
@@ -22238,7 +22221,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="98" t="s">
         <v>173</v>
       </c>
@@ -22270,7 +22253,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="98" t="s">
         <v>175</v>
       </c>
@@ -22302,7 +22285,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="98" t="s">
         <v>177</v>
       </c>
@@ -22334,7 +22317,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="98" t="s">
         <v>179</v>
       </c>
@@ -22366,7 +22349,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="98" t="s">
         <v>181</v>
       </c>
@@ -22398,7 +22381,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="98" t="s">
         <v>183</v>
       </c>
@@ -22430,7 +22413,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="98" t="s">
         <v>185</v>
       </c>
@@ -22462,7 +22445,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="98" t="s">
         <v>187</v>
       </c>
@@ -22494,7 +22477,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="98" t="s">
         <v>189</v>
       </c>
@@ -22526,7 +22509,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="98" t="s">
         <v>191</v>
       </c>
@@ -22558,7 +22541,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="98" t="s">
         <v>193</v>
       </c>
@@ -22590,7 +22573,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="98" t="s">
         <v>195</v>
       </c>
@@ -22622,7 +22605,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="98" t="s">
         <v>197</v>
       </c>
@@ -22654,7 +22637,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="98" t="s">
         <v>199</v>
       </c>
@@ -22686,7 +22669,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="98" t="s">
         <v>201</v>
       </c>
@@ -22718,7 +22701,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="98" t="s">
         <v>203</v>
       </c>
@@ -22750,7 +22733,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="98" t="s">
         <v>205</v>
       </c>
@@ -22782,7 +22765,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="98" t="s">
         <v>207</v>
       </c>
@@ -22814,7 +22797,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="98" t="s">
         <v>209</v>
       </c>
@@ -22846,7 +22829,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="98" t="s">
         <v>211</v>
       </c>
@@ -22878,7 +22861,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="98" t="s">
         <v>213</v>
       </c>
@@ -22910,7 +22893,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="98" t="s">
         <v>215</v>
       </c>
@@ -22942,7 +22925,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="98" t="s">
         <v>217</v>
       </c>
@@ -22974,7 +22957,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="128" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="98" t="s">
         <v>1107</v>
       </c>
@@ -23006,7 +22989,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="129" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="98" t="s">
         <v>1108</v>
       </c>
@@ -23038,7 +23021,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="130" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="98" t="s">
         <v>1109</v>
       </c>
@@ -23070,7 +23053,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="131" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="98" t="s">
         <v>1110</v>
       </c>
@@ -23102,7 +23085,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="132" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="98" t="s">
         <v>1111</v>
       </c>
@@ -23134,7 +23117,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="133" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="98" t="s">
         <v>1116</v>
       </c>
@@ -23166,7 +23149,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="134" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="98" t="s">
         <v>1115</v>
       </c>
@@ -23198,7 +23181,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="135" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="98" t="s">
         <v>1122</v>
       </c>
@@ -23230,7 +23213,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="136" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="98" t="s">
         <v>1123</v>
       </c>
@@ -23262,7 +23245,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="137" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="98" t="s">
         <v>1124</v>
       </c>
@@ -23294,7 +23277,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="138" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="98" t="s">
         <v>1125</v>
       </c>
@@ -23326,7 +23309,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="139" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="98" t="s">
         <v>1126</v>
       </c>
@@ -23358,7 +23341,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="140" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="98" t="s">
         <v>1127</v>
       </c>
@@ -23390,7 +23373,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="141" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="98" t="s">
         <v>1128</v>
       </c>
@@ -23422,7 +23405,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="142" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="98" t="s">
         <v>1136</v>
       </c>
@@ -23454,7 +23437,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="143" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="98" t="s">
         <v>1137</v>
       </c>
@@ -23486,7 +23469,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="144" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="98" t="s">
         <v>1138</v>
       </c>
@@ -23518,7 +23501,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="145" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="98" t="s">
         <v>1139</v>
       </c>
@@ -23550,7 +23533,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="146" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="98" t="s">
         <v>1140</v>
       </c>
@@ -23582,7 +23565,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="147" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="98" t="s">
         <v>1141</v>
       </c>
@@ -23614,7 +23597,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="148" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="98" t="s">
         <v>1142</v>
       </c>
@@ -23646,7 +23629,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="98" t="s">
         <v>881</v>
       </c>
@@ -23678,7 +23661,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="98" t="s">
         <v>884</v>
       </c>
@@ -23710,7 +23693,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="98" t="s">
         <v>882</v>
       </c>
@@ -23742,7 +23725,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="98" t="s">
         <v>883</v>
       </c>
@@ -23774,7 +23757,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="98" t="s">
         <v>219</v>
       </c>
@@ -23806,7 +23789,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="98" t="s">
         <v>220</v>
       </c>
@@ -23838,7 +23821,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="98" t="s">
         <v>221</v>
       </c>
@@ -23870,7 +23853,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="98" t="s">
         <v>222</v>
       </c>
@@ -23902,7 +23885,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="98" t="s">
         <v>223</v>
       </c>
@@ -23934,7 +23917,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="98" t="s">
         <v>224</v>
       </c>
@@ -23966,7 +23949,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="98" t="s">
         <v>225</v>
       </c>
@@ -23998,7 +23981,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="98" t="s">
         <v>226</v>
       </c>
@@ -24030,7 +24013,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="98" t="s">
         <v>227</v>
       </c>
@@ -24062,7 +24045,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="98" t="s">
         <v>228</v>
       </c>
@@ -24094,7 +24077,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="98" t="s">
         <v>229</v>
       </c>
@@ -24126,7 +24109,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="98" t="s">
         <v>230</v>
       </c>
@@ -24158,7 +24141,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="98" t="s">
         <v>231</v>
       </c>
@@ -24190,7 +24173,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="98" t="s">
         <v>232</v>
       </c>
@@ -24222,7 +24205,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="98" t="s">
         <v>233</v>
       </c>
@@ -24254,7 +24237,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="98" t="s">
         <v>234</v>
       </c>
@@ -24286,7 +24269,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="98" t="s">
         <v>235</v>
       </c>
@@ -24318,7 +24301,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="98" t="s">
         <v>236</v>
       </c>
@@ -24350,7 +24333,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="98" t="s">
         <v>237</v>
       </c>
@@ -24382,7 +24365,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="98" t="s">
         <v>238</v>
       </c>
@@ -24414,7 +24397,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="98" t="s">
         <v>239</v>
       </c>
@@ -24446,7 +24429,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="98" t="s">
         <v>240</v>
       </c>
@@ -24478,7 +24461,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="98" t="s">
         <v>241</v>
       </c>
@@ -24510,7 +24493,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="98" t="s">
         <v>242</v>
       </c>
@@ -24542,7 +24525,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="98" t="s">
         <v>243</v>
       </c>
@@ -24574,7 +24557,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="98" t="s">
         <v>244</v>
       </c>
@@ -24606,7 +24589,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="98" t="s">
         <v>245</v>
       </c>
@@ -24638,7 +24621,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="98" t="s">
         <v>246</v>
       </c>
@@ -24670,7 +24653,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="98" t="s">
         <v>247</v>
       </c>
@@ -24702,7 +24685,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="98" t="s">
         <v>248</v>
       </c>
@@ -24734,7 +24717,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="127" t="s">
         <v>249</v>
       </c>
@@ -24766,7 +24749,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="98" t="s">
         <v>250</v>
       </c>
@@ -24798,7 +24781,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="98" t="s">
         <v>251</v>
       </c>
@@ -24830,7 +24813,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="98" t="s">
         <v>252</v>
       </c>
@@ -24862,7 +24845,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="98" t="s">
         <v>253</v>
       </c>
@@ -24894,7 +24877,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="98" t="s">
         <v>254</v>
       </c>
@@ -24926,7 +24909,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="98" t="s">
         <v>255</v>
       </c>
@@ -24958,7 +24941,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="98" t="s">
         <v>256</v>
       </c>
@@ -24990,7 +24973,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="98" t="s">
         <v>257</v>
       </c>
@@ -25023,7 +25006,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -25034,20 +25017,20 @@
   <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B14" activeCellId="1" sqref="C21 B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="55" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="55" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" style="55" customWidth="1"/>
     <col min="4" max="4" width="21" style="54" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="54" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="54"/>
+    <col min="6" max="16384" width="9.1796875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25064,31 +25047,31 @@
         <v>734</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="98" t="s">
         <v>737</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="132" t="s">
         <v>1236</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="130" t="s">
         <v>735</v>
       </c>
       <c r="E2" s="129" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="98" t="s">
         <v>738</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D3" s="88" t="s">
@@ -25098,14 +25081,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="98" t="s">
         <v>739</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D4" s="88" t="s">
@@ -25115,14 +25098,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="98" t="s">
         <v>740</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D5" s="88" t="s">
@@ -25132,14 +25115,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="98" t="s">
         <v>741</v>
       </c>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D6" s="88" t="s">
@@ -25149,14 +25132,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="98" t="s">
         <v>742</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D7" s="88" t="s">
@@ -25166,14 +25149,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="98" t="s">
         <v>743</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D8" s="88" t="s">
@@ -25183,14 +25166,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="98" t="s">
         <v>744</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D9" s="88" t="s">
@@ -25200,15 +25183,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="98" t="s">
         <v>745</v>
       </c>
-      <c r="B10" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C10" s="129" t="s">
-        <v>1236</v>
+      <c r="B10" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C10" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D10" s="88" t="s">
         <v>735</v>
@@ -25217,15 +25200,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="98" t="s">
         <v>746</v>
       </c>
-      <c r="B11" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C11" s="129" t="s">
-        <v>1236</v>
+      <c r="B11" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C11" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D11" s="88" t="s">
         <v>735</v>
@@ -25234,15 +25217,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="98" t="s">
         <v>747</v>
       </c>
-      <c r="B12" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C12" s="129" t="s">
-        <v>1236</v>
+      <c r="B12" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C12" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D12" s="88" t="s">
         <v>735</v>
@@ -25251,15 +25234,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="98" t="s">
         <v>748</v>
       </c>
-      <c r="B13" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C13" s="129" t="s">
-        <v>1236</v>
+      <c r="B13" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C13" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D13" s="88" t="s">
         <v>735</v>
@@ -25268,14 +25251,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D14" s="88" t="s">
@@ -25285,14 +25268,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D15" s="88" t="s">
@@ -25302,14 +25285,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D16" s="88" t="s">
@@ -25319,14 +25302,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D17" s="88" t="s">
@@ -25336,14 +25319,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D18" s="88" t="s">
@@ -25353,14 +25336,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D19" s="88" t="s">
@@ -25370,14 +25353,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D20" s="88" t="s">
@@ -25387,14 +25370,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D21" s="88" t="s">
@@ -25404,15 +25387,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C22" s="129" t="s">
-        <v>1236</v>
+      <c r="B22" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C22" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D22" s="88" t="s">
         <v>735</v>
@@ -25421,15 +25404,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C23" s="129" t="s">
-        <v>1236</v>
+      <c r="B23" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C23" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D23" s="88" t="s">
         <v>735</v>
@@ -25438,15 +25421,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C24" s="129" t="s">
-        <v>1236</v>
+      <c r="B24" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C24" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D24" s="88" t="s">
         <v>735</v>
@@ -25455,15 +25438,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C25" s="129" t="s">
-        <v>1236</v>
+      <c r="B25" s="131" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C25" s="132" t="s">
+        <v>1239</v>
       </c>
       <c r="D25" s="88" t="s">
         <v>735</v>
@@ -25472,14 +25455,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C26" s="129" t="s">
+      <c r="C26" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D26" s="88" t="s">
@@ -25489,14 +25472,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C27" s="129" t="s">
+      <c r="C27" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D27" s="88" t="s">
@@ -25506,14 +25489,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C28" s="129" t="s">
+      <c r="C28" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D28" s="88" t="s">
@@ -25523,14 +25506,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C29" s="129" t="s">
+      <c r="C29" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D29" s="88" t="s">
@@ -25540,14 +25523,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="130" t="s">
+      <c r="B30" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C30" s="129" t="s">
+      <c r="C30" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D30" s="88" t="s">
@@ -25557,14 +25540,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C31" s="129" t="s">
+      <c r="C31" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D31" s="88" t="s">
@@ -25574,14 +25557,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="130" t="s">
+      <c r="B32" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D32" s="88" t="s">
@@ -25591,15 +25574,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C33" s="129" t="s">
-        <v>1236</v>
+      <c r="B33" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C33" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D33" s="88" t="s">
         <v>735</v>
@@ -25608,15 +25591,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C34" s="129" t="s">
-        <v>1236</v>
+      <c r="B34" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C34" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D34" s="88" t="s">
         <v>735</v>
@@ -25625,15 +25608,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C35" s="129" t="s">
-        <v>1236</v>
+      <c r="B35" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C35" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D35" s="88" t="s">
         <v>735</v>
@@ -25642,15 +25625,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C36" s="129" t="s">
-        <v>1236</v>
+      <c r="B36" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C36" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D36" s="88" t="s">
         <v>735</v>
@@ -25659,14 +25642,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="130" t="s">
+      <c r="B37" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C37" s="129" t="s">
+      <c r="C37" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D37" s="88" t="s">
@@ -25676,14 +25659,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C38" s="129" t="s">
+      <c r="C38" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D38" s="88" t="s">
@@ -25693,14 +25676,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C39" s="129" t="s">
+      <c r="C39" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D39" s="88" t="s">
@@ -25710,14 +25693,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="130" t="s">
+      <c r="B40" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C40" s="129" t="s">
+      <c r="C40" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D40" s="88" t="s">
@@ -25727,14 +25710,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="130" t="s">
+      <c r="B41" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C41" s="129" t="s">
+      <c r="C41" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D41" s="88" t="s">
@@ -25744,14 +25727,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="130" t="s">
+      <c r="B42" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C42" s="129" t="s">
+      <c r="C42" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D42" s="88" t="s">
@@ -25761,14 +25744,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C43" s="129" t="s">
+      <c r="C43" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D43" s="88" t="s">
@@ -25778,15 +25761,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="98" t="s">
         <v>749</v>
       </c>
-      <c r="B44" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C44" s="129" t="s">
-        <v>1236</v>
+      <c r="B44" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C44" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D44" s="88" t="s">
         <v>735</v>
@@ -25795,15 +25778,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="98" t="s">
         <v>750</v>
       </c>
-      <c r="B45" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C45" s="129" t="s">
-        <v>1236</v>
+      <c r="B45" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C45" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D45" s="88" t="s">
         <v>735</v>
@@ -25812,15 +25795,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="98" t="s">
         <v>751</v>
       </c>
-      <c r="B46" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C46" s="129" t="s">
-        <v>1236</v>
+      <c r="B46" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C46" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D46" s="88" t="s">
         <v>735</v>
@@ -25829,15 +25812,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="98" t="s">
         <v>752</v>
       </c>
-      <c r="B47" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C47" s="129" t="s">
-        <v>1236</v>
+      <c r="B47" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C47" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D47" s="88" t="s">
         <v>735</v>
@@ -25846,15 +25829,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="98" t="s">
         <v>753</v>
       </c>
-      <c r="B48" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C48" s="129" t="s">
-        <v>1236</v>
+      <c r="B48" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C48" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D48" s="88" t="s">
         <v>735</v>
@@ -25863,15 +25846,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="98" t="s">
         <v>754</v>
       </c>
-      <c r="B49" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C49" s="129" t="s">
-        <v>1236</v>
+      <c r="B49" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C49" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D49" s="88" t="s">
         <v>735</v>
@@ -25880,15 +25863,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="98" t="s">
         <v>755</v>
       </c>
-      <c r="B50" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C50" s="129" t="s">
-        <v>1236</v>
+      <c r="B50" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C50" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D50" s="88" t="s">
         <v>735</v>
@@ -25897,15 +25880,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="98" t="s">
         <v>756</v>
       </c>
-      <c r="B51" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C51" s="129" t="s">
-        <v>1236</v>
+      <c r="B51" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C51" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D51" s="88" t="s">
         <v>735</v>
@@ -25914,15 +25897,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="98" t="s">
         <v>757</v>
       </c>
-      <c r="B52" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C52" s="129" t="s">
-        <v>1236</v>
+      <c r="B52" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C52" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D52" s="88" t="s">
         <v>735</v>
@@ -25931,15 +25914,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="98" t="s">
         <v>758</v>
       </c>
-      <c r="B53" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C53" s="129" t="s">
-        <v>1236</v>
+      <c r="B53" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C53" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D53" s="88" t="s">
         <v>735</v>
@@ -25948,15 +25931,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="98" t="s">
         <v>759</v>
       </c>
-      <c r="B54" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C54" s="129" t="s">
-        <v>1236</v>
+      <c r="B54" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C54" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D54" s="88" t="s">
         <v>735</v>
@@ -25965,15 +25948,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="98" t="s">
         <v>760</v>
       </c>
-      <c r="B55" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C55" s="129" t="s">
-        <v>1236</v>
+      <c r="B55" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C55" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D55" s="88" t="s">
         <v>735</v>
@@ -25982,15 +25965,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C56" s="129" t="s">
-        <v>1236</v>
+      <c r="B56" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C56" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D56" s="88" t="s">
         <v>735</v>
@@ -25999,15 +25982,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C57" s="129" t="s">
-        <v>1236</v>
+      <c r="B57" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C57" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D57" s="88" t="s">
         <v>735</v>
@@ -26016,15 +25999,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C58" s="129" t="s">
-        <v>1236</v>
+      <c r="B58" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C58" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D58" s="88" t="s">
         <v>735</v>
@@ -26033,15 +26016,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C59" s="129" t="s">
-        <v>1236</v>
+      <c r="B59" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C59" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D59" s="88" t="s">
         <v>735</v>
@@ -26050,15 +26033,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C60" s="129" t="s">
-        <v>1236</v>
+      <c r="B60" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C60" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D60" s="88" t="s">
         <v>735</v>
@@ -26067,15 +26050,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C61" s="129" t="s">
-        <v>1236</v>
+      <c r="B61" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C61" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D61" s="88" t="s">
         <v>735</v>
@@ -26084,15 +26067,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="B62" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C62" s="129" t="s">
-        <v>1236</v>
+      <c r="B62" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C62" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D62" s="88" t="s">
         <v>735</v>
@@ -26101,15 +26084,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C63" s="129" t="s">
-        <v>1236</v>
+      <c r="B63" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C63" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D63" s="88" t="s">
         <v>735</v>
@@ -26118,15 +26101,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C64" s="129" t="s">
-        <v>1236</v>
+      <c r="B64" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C64" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D64" s="88" t="s">
         <v>735</v>
@@ -26135,15 +26118,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C65" s="129" t="s">
-        <v>1236</v>
+      <c r="B65" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C65" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D65" s="88" t="s">
         <v>735</v>
@@ -26152,15 +26135,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C66" s="129" t="s">
-        <v>1236</v>
+      <c r="B66" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C66" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D66" s="88" t="s">
         <v>735</v>
@@ -26169,15 +26152,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="B67" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C67" s="129" t="s">
-        <v>1236</v>
+      <c r="B67" s="131" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C67" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D67" s="88" t="s">
         <v>735</v>
@@ -26186,15 +26169,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C68" s="129" t="s">
-        <v>1236</v>
+      <c r="B68" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C68" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D68" s="88" t="s">
         <v>735</v>
@@ -26203,15 +26186,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C69" s="129" t="s">
-        <v>1236</v>
+      <c r="B69" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C69" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D69" s="88" t="s">
         <v>735</v>
@@ -26220,15 +26203,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C70" s="129" t="s">
-        <v>1236</v>
+      <c r="B70" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C70" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D70" s="88" t="s">
         <v>735</v>
@@ -26237,15 +26220,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="B71" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C71" s="129" t="s">
-        <v>1236</v>
+      <c r="B71" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C71" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D71" s="88" t="s">
         <v>735</v>
@@ -26254,15 +26237,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="B72" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C72" s="129" t="s">
-        <v>1236</v>
+      <c r="B72" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C72" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D72" s="88" t="s">
         <v>735</v>
@@ -26271,15 +26254,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C73" s="129" t="s">
-        <v>1236</v>
+      <c r="B73" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C73" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D73" s="88" t="s">
         <v>735</v>
@@ -26288,15 +26271,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C74" s="129" t="s">
-        <v>1236</v>
+      <c r="B74" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C74" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D74" s="88" t="s">
         <v>735</v>
@@ -26305,15 +26288,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="B75" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C75" s="129" t="s">
-        <v>1236</v>
+      <c r="B75" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C75" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D75" s="88" t="s">
         <v>735</v>
@@ -26322,15 +26305,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="B76" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C76" s="129" t="s">
-        <v>1236</v>
+      <c r="B76" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C76" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D76" s="88" t="s">
         <v>735</v>
@@ -26339,15 +26322,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C77" s="129" t="s">
-        <v>1236</v>
+      <c r="B77" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C77" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D77" s="88" t="s">
         <v>735</v>
@@ -26356,15 +26339,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="B78" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C78" s="129" t="s">
-        <v>1236</v>
+      <c r="B78" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C78" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D78" s="88" t="s">
         <v>735</v>
@@ -26373,15 +26356,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C79" s="129" t="s">
-        <v>1236</v>
+      <c r="B79" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C79" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D79" s="88" t="s">
         <v>735</v>
@@ -26390,15 +26373,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="B80" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C80" s="129" t="s">
-        <v>1236</v>
+      <c r="B80" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C80" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D80" s="88" t="s">
         <v>735</v>
@@ -26407,15 +26390,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="B81" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C81" s="129" t="s">
-        <v>1236</v>
+      <c r="B81" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C81" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D81" s="88" t="s">
         <v>735</v>
@@ -26424,15 +26407,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C82" s="129" t="s">
-        <v>1236</v>
+      <c r="B82" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C82" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D82" s="88" t="s">
         <v>735</v>
@@ -26441,15 +26424,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="B83" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C83" s="129" t="s">
-        <v>1236</v>
+      <c r="B83" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C83" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D83" s="88" t="s">
         <v>735</v>
@@ -26458,15 +26441,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C84" s="129" t="s">
-        <v>1236</v>
+      <c r="B84" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C84" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D84" s="88" t="s">
         <v>735</v>
@@ -26475,15 +26458,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="B85" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C85" s="129" t="s">
-        <v>1236</v>
+      <c r="B85" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C85" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D85" s="88" t="s">
         <v>735</v>
@@ -26492,15 +26475,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="98" t="s">
         <v>761</v>
       </c>
-      <c r="B86" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C86" s="129" t="s">
-        <v>1236</v>
+      <c r="B86" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C86" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D86" s="88" t="s">
         <v>735</v>
@@ -26509,15 +26492,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="98" t="s">
         <v>762</v>
       </c>
-      <c r="B87" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C87" s="129" t="s">
-        <v>1236</v>
+      <c r="B87" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C87" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D87" s="88" t="s">
         <v>735</v>
@@ -26526,15 +26509,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="98" t="s">
         <v>763</v>
       </c>
-      <c r="B88" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C88" s="129" t="s">
-        <v>1236</v>
+      <c r="B88" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C88" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D88" s="88" t="s">
         <v>735</v>
@@ -26543,15 +26526,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="98" t="s">
         <v>764</v>
       </c>
-      <c r="B89" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C89" s="129" t="s">
-        <v>1236</v>
+      <c r="B89" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C89" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D89" s="88" t="s">
         <v>735</v>
@@ -26560,15 +26543,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="98" t="s">
         <v>765</v>
       </c>
-      <c r="B90" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C90" s="129" t="s">
-        <v>1236</v>
+      <c r="B90" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C90" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D90" s="88" t="s">
         <v>735</v>
@@ -26577,15 +26560,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="98" t="s">
         <v>766</v>
       </c>
-      <c r="B91" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C91" s="129" t="s">
-        <v>1236</v>
+      <c r="B91" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C91" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D91" s="88" t="s">
         <v>735</v>
@@ -26594,15 +26577,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="98" t="s">
         <v>767</v>
       </c>
-      <c r="B92" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C92" s="129" t="s">
-        <v>1236</v>
+      <c r="B92" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C92" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D92" s="88" t="s">
         <v>735</v>
@@ -26611,15 +26594,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="98" t="s">
         <v>768</v>
       </c>
-      <c r="B93" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C93" s="129" t="s">
-        <v>1236</v>
+      <c r="B93" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C93" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D93" s="88" t="s">
         <v>735</v>
@@ -26628,15 +26611,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="98" t="s">
         <v>769</v>
       </c>
-      <c r="B94" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C94" s="129" t="s">
-        <v>1236</v>
+      <c r="B94" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C94" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D94" s="88" t="s">
         <v>735</v>
@@ -26645,15 +26628,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="98" t="s">
         <v>770</v>
       </c>
-      <c r="B95" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C95" s="129" t="s">
-        <v>1236</v>
+      <c r="B95" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C95" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D95" s="88" t="s">
         <v>735</v>
@@ -26662,15 +26645,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="98" t="s">
         <v>771</v>
       </c>
-      <c r="B96" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C96" s="129" t="s">
-        <v>1236</v>
+      <c r="B96" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C96" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D96" s="88" t="s">
         <v>735</v>
@@ -26679,15 +26662,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="98" t="s">
         <v>772</v>
       </c>
-      <c r="B97" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C97" s="129" t="s">
-        <v>1236</v>
+      <c r="B97" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C97" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D97" s="88" t="s">
         <v>735</v>
@@ -26696,15 +26679,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="B98" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C98" s="129" t="s">
-        <v>1236</v>
+      <c r="B98" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C98" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D98" s="88" t="s">
         <v>735</v>
@@ -26713,15 +26696,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="B99" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C99" s="129" t="s">
-        <v>1236</v>
+      <c r="B99" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C99" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D99" s="88" t="s">
         <v>735</v>
@@ -26730,15 +26713,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="B100" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C100" s="129" t="s">
-        <v>1236</v>
+      <c r="B100" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C100" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D100" s="88" t="s">
         <v>735</v>
@@ -26747,15 +26730,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C101" s="129" t="s">
-        <v>1236</v>
+      <c r="B101" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C101" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D101" s="88" t="s">
         <v>735</v>
@@ -26764,15 +26747,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="B102" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C102" s="129" t="s">
-        <v>1236</v>
+      <c r="B102" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C102" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D102" s="88" t="s">
         <v>735</v>
@@ -26781,15 +26764,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="B103" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C103" s="129" t="s">
-        <v>1236</v>
+      <c r="B103" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C103" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D103" s="88" t="s">
         <v>735</v>
@@ -26798,15 +26781,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="B104" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C104" s="129" t="s">
-        <v>1236</v>
+      <c r="B104" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C104" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D104" s="88" t="s">
         <v>735</v>
@@ -26815,15 +26798,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="B105" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C105" s="129" t="s">
-        <v>1236</v>
+      <c r="B105" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C105" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D105" s="88" t="s">
         <v>735</v>
@@ -26832,15 +26815,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="B106" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C106" s="129" t="s">
-        <v>1236</v>
+      <c r="B106" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C106" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D106" s="88" t="s">
         <v>735</v>
@@ -26849,15 +26832,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="B107" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C107" s="129" t="s">
-        <v>1236</v>
+      <c r="B107" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C107" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D107" s="88" t="s">
         <v>735</v>
@@ -26866,15 +26849,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="B108" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C108" s="129" t="s">
-        <v>1236</v>
+      <c r="B108" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C108" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D108" s="88" t="s">
         <v>735</v>
@@ -26883,15 +26866,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="B109" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C109" s="129" t="s">
-        <v>1236</v>
+      <c r="B109" s="131" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C109" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D109" s="88" t="s">
         <v>735</v>
@@ -26900,15 +26883,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="B110" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C110" s="129" t="s">
-        <v>1236</v>
+      <c r="B110" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C110" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D110" s="88" t="s">
         <v>735</v>
@@ -26917,15 +26900,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="B111" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C111" s="129" t="s">
-        <v>1236</v>
+      <c r="B111" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C111" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D111" s="88" t="s">
         <v>735</v>
@@ -26934,15 +26917,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="B112" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C112" s="129" t="s">
-        <v>1236</v>
+      <c r="B112" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C112" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D112" s="88" t="s">
         <v>735</v>
@@ -26951,15 +26934,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="B113" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C113" s="129" t="s">
-        <v>1236</v>
+      <c r="B113" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C113" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D113" s="88" t="s">
         <v>735</v>
@@ -26968,15 +26951,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="B114" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C114" s="129" t="s">
-        <v>1236</v>
+      <c r="B114" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C114" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D114" s="88" t="s">
         <v>735</v>
@@ -26985,15 +26968,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="B115" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C115" s="129" t="s">
-        <v>1236</v>
+      <c r="B115" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C115" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D115" s="88" t="s">
         <v>735</v>
@@ -27002,15 +26985,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="B116" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C116" s="129" t="s">
-        <v>1236</v>
+      <c r="B116" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C116" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D116" s="88" t="s">
         <v>735</v>
@@ -27019,15 +27002,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="B117" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C117" s="129" t="s">
-        <v>1236</v>
+      <c r="B117" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C117" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D117" s="88" t="s">
         <v>735</v>
@@ -27036,15 +27019,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="98" t="s">
         <v>199</v>
       </c>
-      <c r="B118" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C118" s="129" t="s">
-        <v>1236</v>
+      <c r="B118" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C118" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D118" s="88" t="s">
         <v>735</v>
@@ -27053,15 +27036,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="B119" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C119" s="129" t="s">
-        <v>1236</v>
+      <c r="B119" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C119" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D119" s="88" t="s">
         <v>735</v>
@@ -27070,15 +27053,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="B120" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C120" s="129" t="s">
-        <v>1236</v>
+      <c r="B120" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C120" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D120" s="88" t="s">
         <v>735</v>
@@ -27087,15 +27070,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="B121" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C121" s="129" t="s">
-        <v>1236</v>
+      <c r="B121" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C121" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D121" s="88" t="s">
         <v>735</v>
@@ -27104,15 +27087,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="B122" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C122" s="129" t="s">
-        <v>1236</v>
+      <c r="B122" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C122" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D122" s="88" t="s">
         <v>735</v>
@@ -27121,15 +27104,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="B123" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C123" s="129" t="s">
-        <v>1236</v>
+      <c r="B123" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C123" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D123" s="88" t="s">
         <v>735</v>
@@ -27138,15 +27121,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="B124" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C124" s="129" t="s">
-        <v>1236</v>
+      <c r="B124" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C124" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D124" s="88" t="s">
         <v>735</v>
@@ -27155,15 +27138,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="125" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="B125" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C125" s="129" t="s">
-        <v>1236</v>
+      <c r="B125" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C125" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D125" s="88" t="s">
         <v>735</v>
@@ -27172,15 +27155,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="126" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C126" s="129" t="s">
-        <v>1236</v>
+      <c r="B126" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C126" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D126" s="88" t="s">
         <v>735</v>
@@ -27189,15 +27172,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="127" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="B127" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C127" s="129" t="s">
-        <v>1236</v>
+      <c r="B127" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C127" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D127" s="88" t="s">
         <v>735</v>
@@ -27206,14 +27189,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="128" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="98" t="s">
         <v>1107</v>
       </c>
-      <c r="B128" s="130" t="s">
+      <c r="B128" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C128" s="129" t="s">
+      <c r="C128" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D128" s="88" t="s">
@@ -27223,14 +27206,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="129" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="98" t="s">
         <v>1108</v>
       </c>
-      <c r="B129" s="130" t="s">
+      <c r="B129" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C129" s="129" t="s">
+      <c r="C129" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D129" s="88" t="s">
@@ -27240,14 +27223,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="130" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="98" t="s">
         <v>1109</v>
       </c>
-      <c r="B130" s="130" t="s">
+      <c r="B130" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C130" s="129" t="s">
+      <c r="C130" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D130" s="88" t="s">
@@ -27257,14 +27240,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="131" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="98" t="s">
         <v>1110</v>
       </c>
-      <c r="B131" s="130" t="s">
+      <c r="B131" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C131" s="129" t="s">
+      <c r="C131" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D131" s="88" t="s">
@@ -27274,14 +27257,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="132" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="98" t="s">
         <v>1111</v>
       </c>
-      <c r="B132" s="130" t="s">
+      <c r="B132" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C132" s="129" t="s">
+      <c r="C132" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D132" s="88" t="s">
@@ -27291,14 +27274,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="133" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="98" t="s">
         <v>1116</v>
       </c>
-      <c r="B133" s="130" t="s">
+      <c r="B133" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C133" s="129" t="s">
+      <c r="C133" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D133" s="88" t="s">
@@ -27308,14 +27291,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="134" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="98" t="s">
         <v>1115</v>
       </c>
-      <c r="B134" s="130" t="s">
+      <c r="B134" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C134" s="129" t="s">
+      <c r="C134" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D134" s="88" t="s">
@@ -27325,15 +27308,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="135" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="98" t="s">
         <v>1122</v>
       </c>
-      <c r="B135" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C135" s="129" t="s">
-        <v>1236</v>
+      <c r="B135" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C135" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D135" s="88" t="s">
         <v>735</v>
@@ -27342,15 +27325,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="136" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="98" t="s">
         <v>1123</v>
       </c>
-      <c r="B136" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C136" s="129" t="s">
-        <v>1236</v>
+      <c r="B136" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C136" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D136" s="88" t="s">
         <v>735</v>
@@ -27359,15 +27342,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="137" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="98" t="s">
         <v>1124</v>
       </c>
-      <c r="B137" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C137" s="129" t="s">
-        <v>1236</v>
+      <c r="B137" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C137" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D137" s="88" t="s">
         <v>735</v>
@@ -27376,15 +27359,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="138" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="98" t="s">
         <v>1125</v>
       </c>
-      <c r="B138" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C138" s="129" t="s">
-        <v>1236</v>
+      <c r="B138" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C138" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D138" s="88" t="s">
         <v>735</v>
@@ -27393,15 +27376,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="139" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="98" t="s">
         <v>1126</v>
       </c>
-      <c r="B139" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C139" s="129" t="s">
-        <v>1236</v>
+      <c r="B139" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C139" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D139" s="88" t="s">
         <v>735</v>
@@ -27410,15 +27393,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="140" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="98" t="s">
         <v>1127</v>
       </c>
-      <c r="B140" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C140" s="129" t="s">
-        <v>1236</v>
+      <c r="B140" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C140" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D140" s="88" t="s">
         <v>735</v>
@@ -27427,15 +27410,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="141" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="98" t="s">
         <v>1128</v>
       </c>
-      <c r="B141" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C141" s="129" t="s">
-        <v>1236</v>
+      <c r="B141" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C141" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D141" s="88" t="s">
         <v>735</v>
@@ -27444,15 +27427,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="142" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="98" t="s">
         <v>1136</v>
       </c>
-      <c r="B142" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C142" s="129" t="s">
-        <v>1236</v>
+      <c r="B142" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C142" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D142" s="88" t="s">
         <v>735</v>
@@ -27461,15 +27444,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="143" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="98" t="s">
         <v>1137</v>
       </c>
-      <c r="B143" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C143" s="129" t="s">
-        <v>1236</v>
+      <c r="B143" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C143" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D143" s="88" t="s">
         <v>735</v>
@@ -27478,15 +27461,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="144" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="98" t="s">
         <v>1138</v>
       </c>
-      <c r="B144" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C144" s="129" t="s">
-        <v>1236</v>
+      <c r="B144" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C144" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D144" s="88" t="s">
         <v>735</v>
@@ -27495,15 +27478,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="145" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="98" t="s">
         <v>1139</v>
       </c>
-      <c r="B145" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C145" s="129" t="s">
-        <v>1236</v>
+      <c r="B145" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C145" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D145" s="88" t="s">
         <v>735</v>
@@ -27512,15 +27495,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="146" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="98" t="s">
         <v>1140</v>
       </c>
-      <c r="B146" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C146" s="129" t="s">
-        <v>1236</v>
+      <c r="B146" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C146" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D146" s="88" t="s">
         <v>735</v>
@@ -27529,15 +27512,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="147" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="98" t="s">
         <v>1141</v>
       </c>
-      <c r="B147" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C147" s="129" t="s">
-        <v>1236</v>
+      <c r="B147" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C147" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D147" s="88" t="s">
         <v>735</v>
@@ -27546,15 +27529,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="148" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="98" t="s">
         <v>1142</v>
       </c>
-      <c r="B148" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C148" s="129" t="s">
-        <v>1236</v>
+      <c r="B148" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C148" s="132" t="s">
+        <v>1240</v>
       </c>
       <c r="D148" s="88" t="s">
         <v>735</v>
@@ -27563,14 +27546,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="149" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="98" t="s">
         <v>881</v>
       </c>
-      <c r="B149" s="130" t="s">
+      <c r="B149" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C149" s="129" t="s">
+      <c r="C149" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D149" s="88" t="s">
@@ -27580,14 +27563,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="150" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="98" t="s">
         <v>884</v>
       </c>
-      <c r="B150" s="130" t="s">
+      <c r="B150" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C150" s="129" t="s">
+      <c r="C150" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D150" s="88" t="s">
@@ -27597,15 +27580,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="151" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="98" t="s">
         <v>882</v>
       </c>
-      <c r="B151" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C151" s="129" t="s">
-        <v>1236</v>
+      <c r="B151" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C151" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D151" s="88" t="s">
         <v>735</v>
@@ -27614,15 +27597,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="152" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="98" t="s">
         <v>883</v>
       </c>
-      <c r="B152" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C152" s="129" t="s">
-        <v>1236</v>
+      <c r="B152" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C152" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D152" s="88" t="s">
         <v>735</v>
@@ -27631,14 +27614,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="153" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="B153" s="130" t="s">
+      <c r="B153" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C153" s="129" t="s">
+      <c r="C153" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D153" s="88" t="s">
@@ -27648,14 +27631,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="154" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="B154" s="130" t="s">
+      <c r="B154" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C154" s="129" t="s">
+      <c r="C154" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D154" s="88" t="s">
@@ -27665,15 +27648,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="155" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="B155" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C155" s="129" t="s">
-        <v>1236</v>
+      <c r="B155" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C155" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D155" s="88" t="s">
         <v>735</v>
@@ -27682,14 +27665,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="156" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="B156" s="130" t="s">
+      <c r="B156" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C156" s="129" t="s">
+      <c r="C156" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D156" s="88" t="s">
@@ -27699,14 +27682,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="B157" s="130" t="s">
+      <c r="B157" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C157" s="129" t="s">
+      <c r="C157" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D157" s="88" t="s">
@@ -27716,15 +27699,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="B158" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C158" s="129" t="s">
-        <v>1236</v>
+      <c r="B158" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C158" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D158" s="88" t="s">
         <v>735</v>
@@ -27733,14 +27716,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="B159" s="130" t="s">
+      <c r="B159" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C159" s="129" t="s">
+      <c r="C159" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D159" s="88" t="s">
@@ -27750,14 +27733,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="B160" s="130" t="s">
+      <c r="B160" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C160" s="129" t="s">
+      <c r="C160" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D160" s="88" t="s">
@@ -27767,15 +27750,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="B161" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C161" s="129" t="s">
-        <v>1236</v>
+      <c r="B161" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C161" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D161" s="88" t="s">
         <v>735</v>
@@ -27784,14 +27767,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="B162" s="130" t="s">
+      <c r="B162" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C162" s="129" t="s">
+      <c r="C162" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D162" s="88" t="s">
@@ -27801,14 +27784,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="B163" s="130" t="s">
+      <c r="B163" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C163" s="129" t="s">
+      <c r="C163" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D163" s="88" t="s">
@@ -27818,15 +27801,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="B164" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C164" s="129" t="s">
-        <v>1236</v>
+      <c r="B164" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C164" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D164" s="88" t="s">
         <v>735</v>
@@ -27835,14 +27818,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="B165" s="130" t="s">
+      <c r="B165" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C165" s="129" t="s">
+      <c r="C165" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D165" s="88" t="s">
@@ -27852,14 +27835,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="B166" s="130" t="s">
+      <c r="B166" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C166" s="129" t="s">
+      <c r="C166" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D166" s="88" t="s">
@@ -27869,15 +27852,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="B167" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C167" s="129" t="s">
-        <v>1236</v>
+      <c r="B167" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C167" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D167" s="88" t="s">
         <v>735</v>
@@ -27886,14 +27869,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="B168" s="130" t="s">
+      <c r="B168" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C168" s="129" t="s">
+      <c r="C168" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D168" s="88" t="s">
@@ -27903,14 +27886,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="B169" s="130" t="s">
+      <c r="B169" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C169" s="129" t="s">
+      <c r="C169" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D169" s="88" t="s">
@@ -27920,15 +27903,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="B170" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C170" s="129" t="s">
-        <v>1236</v>
+      <c r="B170" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C170" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D170" s="88" t="s">
         <v>735</v>
@@ -27937,14 +27920,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="B171" s="130" t="s">
+      <c r="B171" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C171" s="129" t="s">
+      <c r="C171" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D171" s="88" t="s">
@@ -27954,14 +27937,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="98" t="s">
         <v>238</v>
       </c>
-      <c r="B172" s="130" t="s">
+      <c r="B172" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C172" s="129" t="s">
+      <c r="C172" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D172" s="88" t="s">
@@ -27971,15 +27954,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="B173" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C173" s="129" t="s">
-        <v>1236</v>
+      <c r="B173" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C173" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D173" s="88" t="s">
         <v>735</v>
@@ -27988,14 +27971,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="98" t="s">
         <v>240</v>
       </c>
-      <c r="B174" s="130" t="s">
+      <c r="B174" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C174" s="129" t="s">
+      <c r="C174" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D174" s="88" t="s">
@@ -28005,14 +27988,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="B175" s="130" t="s">
+      <c r="B175" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C175" s="129" t="s">
+      <c r="C175" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D175" s="88" t="s">
@@ -28022,15 +28005,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="98" t="s">
         <v>242</v>
       </c>
-      <c r="B176" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C176" s="129" t="s">
-        <v>1236</v>
+      <c r="B176" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C176" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D176" s="88" t="s">
         <v>735</v>
@@ -28039,14 +28022,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="B177" s="130" t="s">
+      <c r="B177" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C177" s="129" t="s">
+      <c r="C177" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D177" s="88" t="s">
@@ -28056,14 +28039,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="B178" s="130" t="s">
+      <c r="B178" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C178" s="129" t="s">
+      <c r="C178" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D178" s="88" t="s">
@@ -28073,15 +28056,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="B179" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C179" s="129" t="s">
-        <v>1236</v>
+      <c r="B179" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C179" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D179" s="88" t="s">
         <v>735</v>
@@ -28090,14 +28073,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="B180" s="130" t="s">
+      <c r="B180" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C180" s="129" t="s">
+      <c r="C180" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D180" s="88" t="s">
@@ -28107,14 +28090,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="B181" s="130" t="s">
+      <c r="B181" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C181" s="129" t="s">
+      <c r="C181" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D181" s="88" t="s">
@@ -28124,15 +28107,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="B182" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C182" s="129" t="s">
-        <v>1236</v>
+      <c r="B182" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C182" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D182" s="88" t="s">
         <v>735</v>
@@ -28141,14 +28124,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="B183" s="130" t="s">
+      <c r="B183" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C183" s="129" t="s">
+      <c r="C183" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D183" s="88" t="s">
@@ -28158,14 +28141,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="B184" s="130" t="s">
+      <c r="B184" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C184" s="129" t="s">
+      <c r="C184" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D184" s="88" t="s">
@@ -28175,15 +28158,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="B185" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C185" s="129" t="s">
-        <v>1236</v>
+      <c r="B185" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C185" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D185" s="88" t="s">
         <v>735</v>
@@ -28192,14 +28175,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="B186" s="130" t="s">
+      <c r="B186" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C186" s="129" t="s">
+      <c r="C186" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D186" s="88" t="s">
@@ -28209,14 +28192,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="B187" s="130" t="s">
+      <c r="B187" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C187" s="129" t="s">
+      <c r="C187" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D187" s="88" t="s">
@@ -28226,15 +28209,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="B188" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C188" s="129" t="s">
-        <v>1236</v>
+      <c r="B188" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C188" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D188" s="88" t="s">
         <v>735</v>
@@ -28243,14 +28226,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="98" t="s">
         <v>255</v>
       </c>
-      <c r="B189" s="130" t="s">
+      <c r="B189" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C189" s="129" t="s">
+      <c r="C189" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D189" s="88" t="s">
@@ -28260,14 +28243,14 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="98" t="s">
         <v>256</v>
       </c>
-      <c r="B190" s="130" t="s">
+      <c r="B190" s="131" t="s">
         <v>1235</v>
       </c>
-      <c r="C190" s="129" t="s">
+      <c r="C190" s="132" t="s">
         <v>1236</v>
       </c>
       <c r="D190" s="88" t="s">
@@ -28277,15 +28260,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="B191" s="130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C191" s="129" t="s">
-        <v>1236</v>
+      <c r="B191" s="131" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C191" s="132" t="s">
+        <v>1238</v>
       </c>
       <c r="D191" s="88" t="s">
         <v>735</v>
@@ -28295,13 +28278,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -28471,35 +28469,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28521,9 +28494,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>